--- a/agilent_methods/experimentTemplate.xlsx
+++ b/agilent_methods/experimentTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/reder_chalmers_se/Documents/right-bourbon/pilot_yeast_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gkreder/RapidSky/agilent_methods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A0211A6B-8D0A-2546-821B-B050B31067B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C9C99F-5187-844A-B384-C58A713F81A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="samples" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="119">
   <si>
     <t>Well</t>
   </si>
@@ -351,9 +351,6 @@
   </si>
   <si>
     <t>CycleDurations</t>
-  </si>
-  <si>
-    <t>FileName</t>
   </si>
   <si>
     <t>Value</t>
@@ -386,7 +383,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1227,11 +1224,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1288,7 +1285,7 @@
         <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H2" t="s">
         <v>72</v>
@@ -1317,7 +1314,7 @@
         <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H3" t="s">
         <v>72</v>
@@ -1346,7 +1343,7 @@
         <v>76</v>
       </c>
       <c r="G4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H4" t="s">
         <v>72</v>
@@ -1375,7 +1372,7 @@
         <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H5" t="s">
         <v>72</v>
@@ -1404,7 +1401,7 @@
         <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H6" t="s">
         <v>72</v>
@@ -1433,7 +1430,7 @@
         <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H7" t="s">
         <v>72</v>
@@ -1462,7 +1459,7 @@
         <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
         <v>72</v>
@@ -1491,7 +1488,7 @@
         <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H9" t="s">
         <v>72</v>
@@ -1520,7 +1517,7 @@
         <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H10" t="s">
         <v>72</v>
@@ -1549,7 +1546,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H11" t="s">
         <v>72</v>
@@ -1578,7 +1575,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H12" t="s">
         <v>72</v>
@@ -1607,7 +1604,7 @@
         <v>78</v>
       </c>
       <c r="G13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H13" t="s">
         <v>72</v>
@@ -1636,7 +1633,7 @@
         <v>78</v>
       </c>
       <c r="G14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H14" t="s">
         <v>72</v>
@@ -1665,7 +1662,7 @@
         <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H15" t="s">
         <v>72</v>
@@ -1694,7 +1691,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H16" t="s">
         <v>72</v>
@@ -1723,7 +1720,7 @@
         <v>78</v>
       </c>
       <c r="G17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H17" t="s">
         <v>72</v>
@@ -1752,7 +1749,7 @@
         <v>78</v>
       </c>
       <c r="G18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H18" t="s">
         <v>72</v>
@@ -1781,7 +1778,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H19" t="s">
         <v>72</v>
@@ -1810,7 +1807,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H20" t="s">
         <v>72</v>
@@ -1839,7 +1836,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H21" t="s">
         <v>72</v>
@@ -1868,7 +1865,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H22" t="s">
         <v>72</v>
@@ -1897,7 +1894,7 @@
         <v>76</v>
       </c>
       <c r="G23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H23" t="s">
         <v>72</v>
@@ -1926,7 +1923,7 @@
         <v>76</v>
       </c>
       <c r="G24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H24" t="s">
         <v>72</v>
@@ -1955,7 +1952,7 @@
         <v>77</v>
       </c>
       <c r="G25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H25" t="s">
         <v>72</v>
@@ -1984,7 +1981,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H26" t="s">
         <v>72</v>
@@ -2013,7 +2010,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H27" t="s">
         <v>72</v>
@@ -2042,7 +2039,7 @@
         <v>78</v>
       </c>
       <c r="G28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H28" t="s">
         <v>72</v>
@@ -2071,7 +2068,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H29" t="s">
         <v>72</v>
@@ -2100,7 +2097,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H30" t="s">
         <v>72</v>
@@ -2129,7 +2126,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H31" t="s">
         <v>72</v>
@@ -2158,7 +2155,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H32" t="s">
         <v>72</v>
@@ -2187,7 +2184,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H33" t="s">
         <v>72</v>
@@ -2216,7 +2213,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H34" t="s">
         <v>72</v>
@@ -2245,7 +2242,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H35" t="s">
         <v>72</v>
@@ -2274,7 +2271,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H36" t="s">
         <v>72</v>
@@ -2303,7 +2300,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H37" t="s">
         <v>72</v>
@@ -2332,7 +2329,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H38" t="s">
         <v>72</v>
@@ -2361,7 +2358,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H39" t="s">
         <v>72</v>
@@ -2390,7 +2387,7 @@
         <v>76</v>
       </c>
       <c r="G40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H40" t="s">
         <v>72</v>
@@ -2419,7 +2416,7 @@
         <v>76</v>
       </c>
       <c r="G41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H41" t="s">
         <v>72</v>
@@ -2448,7 +2445,7 @@
         <v>76</v>
       </c>
       <c r="G42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H42" t="s">
         <v>72</v>
@@ -2477,7 +2474,7 @@
         <v>76</v>
       </c>
       <c r="G43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H43" t="s">
         <v>72</v>
@@ -2506,7 +2503,7 @@
         <v>77</v>
       </c>
       <c r="G44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H44" t="s">
         <v>72</v>
@@ -2535,7 +2532,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H45" t="s">
         <v>72</v>
@@ -2564,7 +2561,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H46" t="s">
         <v>72</v>
@@ -2593,7 +2590,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H47" t="s">
         <v>72</v>
@@ -2622,7 +2619,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H48" t="s">
         <v>72</v>
@@ -2651,7 +2648,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H49" t="s">
         <v>72</v>
@@ -2680,7 +2677,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H50" t="s">
         <v>72</v>
@@ -2709,7 +2706,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H51" t="s">
         <v>72</v>
@@ -2738,7 +2735,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H52" t="s">
         <v>72</v>
@@ -2767,7 +2764,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H53" t="s">
         <v>72</v>
@@ -2796,7 +2793,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H54" t="s">
         <v>72</v>
@@ -2825,7 +2822,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H55" t="s">
         <v>72</v>
@@ -2854,7 +2851,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H56" t="s">
         <v>72</v>
@@ -2883,7 +2880,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H57" t="s">
         <v>72</v>
@@ -2912,7 +2909,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H58" t="s">
         <v>72</v>
@@ -2941,7 +2938,7 @@
         <v>76</v>
       </c>
       <c r="G59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H59" t="s">
         <v>72</v>
@@ -2970,7 +2967,7 @@
         <v>76</v>
       </c>
       <c r="G60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H60" t="s">
         <v>72</v>
@@ -2999,7 +2996,7 @@
         <v>76</v>
       </c>
       <c r="G61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H61" t="s">
         <v>72</v>
@@ -3028,7 +3025,7 @@
         <v>76</v>
       </c>
       <c r="G62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H62" t="s">
         <v>72</v>
@@ -3057,7 +3054,7 @@
         <v>76</v>
       </c>
       <c r="G63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H63" t="s">
         <v>72</v>
@@ -3086,7 +3083,7 @@
         <v>76</v>
       </c>
       <c r="G64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H64" t="s">
         <v>72</v>
@@ -3115,7 +3112,7 @@
         <v>76</v>
       </c>
       <c r="G65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H65" t="s">
         <v>72</v>
@@ -3144,7 +3141,7 @@
         <v>76</v>
       </c>
       <c r="G66" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H66" t="s">
         <v>72</v>
@@ -3173,7 +3170,7 @@
         <v>77</v>
       </c>
       <c r="G67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H67" t="s">
         <v>72</v>
@@ -3202,7 +3199,7 @@
         <v>77</v>
       </c>
       <c r="G68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H68" t="s">
         <v>72</v>
@@ -3231,7 +3228,7 @@
         <v>77</v>
       </c>
       <c r="G69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H69" t="s">
         <v>72</v>
@@ -3260,7 +3257,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H70" t="s">
         <v>72</v>
@@ -3289,7 +3286,7 @@
         <v>78</v>
       </c>
       <c r="G71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H71" t="s">
         <v>72</v>
@@ -3318,7 +3315,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H72" t="s">
         <v>72</v>
@@ -3347,7 +3344,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H73" t="s">
         <v>72</v>
@@ -3376,7 +3373,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H74" t="s">
         <v>72</v>
@@ -3405,7 +3402,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H75" t="s">
         <v>72</v>
@@ -3434,7 +3431,7 @@
         <v>78</v>
       </c>
       <c r="G76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H76" t="s">
         <v>72</v>
@@ -3463,7 +3460,7 @@
         <v>78</v>
       </c>
       <c r="G77" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H77" t="s">
         <v>72</v>
@@ -3492,7 +3489,7 @@
         <v>78</v>
       </c>
       <c r="G78" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H78" t="s">
         <v>72</v>
@@ -3521,7 +3518,7 @@
         <v>78</v>
       </c>
       <c r="G79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H79" t="s">
         <v>72</v>
@@ -3550,7 +3547,7 @@
         <v>78</v>
       </c>
       <c r="G80" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H80" t="s">
         <v>72</v>
@@ -3579,7 +3576,7 @@
         <v>78</v>
       </c>
       <c r="G81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H81" t="s">
         <v>72</v>
@@ -3608,7 +3605,7 @@
         <v>76</v>
       </c>
       <c r="G82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H82" t="s">
         <v>72</v>
@@ -3637,7 +3634,7 @@
         <v>76</v>
       </c>
       <c r="G83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H83" t="s">
         <v>72</v>
@@ -3666,7 +3663,7 @@
         <v>76</v>
       </c>
       <c r="G84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H84" t="s">
         <v>72</v>
@@ -3695,7 +3692,7 @@
         <v>76</v>
       </c>
       <c r="G85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H85" t="s">
         <v>72</v>
@@ -3724,7 +3721,7 @@
         <v>77</v>
       </c>
       <c r="G86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H86" t="s">
         <v>72</v>
@@ -3753,7 +3750,7 @@
         <v>77</v>
       </c>
       <c r="G87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H87" t="s">
         <v>72</v>
@@ -3782,7 +3779,7 @@
         <v>77</v>
       </c>
       <c r="G88" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H88" t="s">
         <v>72</v>
@@ -3811,7 +3808,7 @@
         <v>78</v>
       </c>
       <c r="G89" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H89" t="s">
         <v>72</v>
@@ -3840,7 +3837,7 @@
         <v>78</v>
       </c>
       <c r="G90" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H90" t="s">
         <v>72</v>
@@ -3869,7 +3866,7 @@
         <v>78</v>
       </c>
       <c r="G91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H91" t="s">
         <v>72</v>
@@ -3898,7 +3895,7 @@
         <v>78</v>
       </c>
       <c r="G92" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H92" t="s">
         <v>72</v>
@@ -3927,7 +3924,7 @@
         <v>78</v>
       </c>
       <c r="G93" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H93" t="s">
         <v>72</v>
@@ -3956,7 +3953,7 @@
         <v>78</v>
       </c>
       <c r="G94" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H94" t="s">
         <v>72</v>
@@ -3985,7 +3982,7 @@
         <v>78</v>
       </c>
       <c r="G95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H95" t="s">
         <v>72</v>
@@ -4014,7 +4011,7 @@
         <v>78</v>
       </c>
       <c r="G96" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H96" t="s">
         <v>72</v>
@@ -4043,7 +4040,7 @@
         <v>78</v>
       </c>
       <c r="G97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H97" t="s">
         <v>72</v>
@@ -4072,7 +4069,7 @@
         <v>78</v>
       </c>
       <c r="G98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H98" t="s">
         <v>72</v>
@@ -4101,7 +4098,7 @@
         <v>78</v>
       </c>
       <c r="G99" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H99" t="s">
         <v>72</v>
@@ -4130,7 +4127,7 @@
         <v>78</v>
       </c>
       <c r="G100" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H100" t="s">
         <v>72</v>
@@ -4159,7 +4156,7 @@
         <v>76</v>
       </c>
       <c r="G101" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H101" t="s">
         <v>72</v>
@@ -4188,7 +4185,7 @@
         <v>76</v>
       </c>
       <c r="G102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H102" t="s">
         <v>72</v>
@@ -4217,7 +4214,7 @@
         <v>76</v>
       </c>
       <c r="G103" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H103" t="s">
         <v>72</v>
@@ -4246,7 +4243,7 @@
         <v>76</v>
       </c>
       <c r="G104" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H104" t="s">
         <v>72</v>
@@ -4275,7 +4272,7 @@
         <v>77</v>
       </c>
       <c r="G105" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H105" t="s">
         <v>72</v>
@@ -4304,7 +4301,7 @@
         <v>77</v>
       </c>
       <c r="G106" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H106" t="s">
         <v>72</v>
@@ -4333,7 +4330,7 @@
         <v>77</v>
       </c>
       <c r="G107" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H107" t="s">
         <v>72</v>
@@ -4362,7 +4359,7 @@
         <v>78</v>
       </c>
       <c r="G108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H108" t="s">
         <v>72</v>
@@ -4391,7 +4388,7 @@
         <v>78</v>
       </c>
       <c r="G109" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H109" t="s">
         <v>72</v>
@@ -4420,7 +4417,7 @@
         <v>78</v>
       </c>
       <c r="G110" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H110" t="s">
         <v>72</v>
@@ -4449,7 +4446,7 @@
         <v>78</v>
       </c>
       <c r="G111" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H111" t="s">
         <v>72</v>
@@ -4478,7 +4475,7 @@
         <v>78</v>
       </c>
       <c r="G112" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H112" t="s">
         <v>72</v>
@@ -4507,7 +4504,7 @@
         <v>78</v>
       </c>
       <c r="G113" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H113" t="s">
         <v>72</v>
@@ -4536,7 +4533,7 @@
         <v>78</v>
       </c>
       <c r="G114" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H114" t="s">
         <v>72</v>
@@ -4565,7 +4562,7 @@
         <v>78</v>
       </c>
       <c r="G115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H115" t="s">
         <v>72</v>
@@ -4594,7 +4591,7 @@
         <v>78</v>
       </c>
       <c r="G116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H116" t="s">
         <v>72</v>
@@ -4623,7 +4620,7 @@
         <v>78</v>
       </c>
       <c r="G117" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H117" t="s">
         <v>72</v>
@@ -4652,7 +4649,7 @@
         <v>78</v>
       </c>
       <c r="G118" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H118" t="s">
         <v>72</v>
@@ -4681,7 +4678,7 @@
         <v>78</v>
       </c>
       <c r="G119" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H119" t="s">
         <v>72</v>
@@ -4710,7 +4707,7 @@
         <v>76</v>
       </c>
       <c r="G120" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H120" t="s">
         <v>72</v>
@@ -4739,7 +4736,7 @@
         <v>76</v>
       </c>
       <c r="G121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H121" t="s">
         <v>72</v>
@@ -4768,7 +4765,7 @@
         <v>76</v>
       </c>
       <c r="G122" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H122" t="s">
         <v>72</v>
@@ -4797,7 +4794,7 @@
         <v>76</v>
       </c>
       <c r="G123" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H123" t="s">
         <v>72</v>
@@ -4813,11 +4810,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4830,7 +4827,7 @@
         <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5064,7 +5061,7 @@
         <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -5080,19 +5077,19 @@
         <v>108</v>
       </c>
       <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
         <v>113</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>114</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>115</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>116</v>
-      </c>
-      <c r="F30" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -5113,11 +5110,6 @@
       </c>
       <c r="F31">
         <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/agilent_methods/experimentTemplate.xlsx
+++ b/agilent_methods/experimentTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gkreder/RapidSky/agilent_methods/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C9C99F-5187-844A-B384-C58A713F81A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F434B802-2AFE-F746-A618-415685DF5BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="samples" sheetId="1" r:id="rId1"/>
@@ -374,10 +374,10 @@
     <t>Reequilibrate</t>
   </si>
   <si>
-    <t>D:\Projects\Default\Methods\2023-03-02_dodd_4Bit_POS.m</t>
-  </si>
-  <si>
-    <t>D:\Projects\Default\Methods\2023-03-02_dodd_4Bit_NEG.m</t>
+    <t>2023-03-02_dodd_4Bit_POS.m</t>
+  </si>
+  <si>
+    <t>2023-03-02_dodd_4Bit_NEG.m</t>
   </si>
 </sst>
 </file>
@@ -1227,41 +1227,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="231" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4813,8 +4821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
